--- a/RO/RépTPs/TP3/Interface_TP3_Exo3.xlsx
+++ b/RO/RépTPs/TP3/Interface_TP3_Exo3.xlsx
@@ -1,108 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\PycharmProjects\TPs\TPs\RO\RépTPs\TP3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731D2B6-BB5E-4246-8C1B-C281B32ED2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Données" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Résultats" sheetId="2" r:id="rId3"/>
+    <sheet name="Données" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Résultats" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
-  <si>
-    <t>Nombre d'objets :</t>
-  </si>
-  <si>
-    <t>Capacité :</t>
-  </si>
-  <si>
-    <t>Objet</t>
-  </si>
-  <si>
-    <t>Poids</t>
-  </si>
-  <si>
-    <t>Profit :</t>
-  </si>
-  <si>
-    <t>objValue</t>
-  </si>
-  <si>
-    <t>Transporté</t>
-  </si>
-  <si>
-    <t>Bénéfice</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="22"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="24"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="22"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,54 +185,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -569,346 +591,374 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="21" width="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5" customWidth="1"/>
+    <col width="15.36328125" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="3" bestFit="1" customWidth="1" min="3" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nombre d'objets :</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Capacité :</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Objet</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bénéfice</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>98</v>
+      </c>
+      <c r="G4" t="n">
+        <v>70</v>
+      </c>
+      <c r="H4" t="n">
+        <v>82</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29</v>
+      </c>
+      <c r="J4" t="n">
+        <v>80</v>
+      </c>
+      <c r="K4" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Poids</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
+      <c r="K5" t="n">
         <v>7</v>
       </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>55</v>
-      </c>
-      <c r="D4">
-        <v>42</v>
-      </c>
-      <c r="E4">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>98</v>
-      </c>
-      <c r="G4">
-        <v>70</v>
-      </c>
-      <c r="H4">
-        <v>82</v>
-      </c>
-      <c r="I4">
-        <v>29</v>
-      </c>
-      <c r="J4">
-        <v>80</v>
-      </c>
-      <c r="K4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>52</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>39</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>18</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>45</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>27</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>12</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>12</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>14</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930ADF84-C5B3-4325-A47C-54A8D853C3C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.90625" customWidth="1"/>
+    <col width="21.90625" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="13" t="n"/>
+      <c r="B1" s="13" t="n"/>
+      <c r="C1" s="13" t="n"/>
+      <c r="D1" s="13" t="n"/>
+      <c r="E1" s="13" t="n"/>
+      <c r="F1" s="13" t="n"/>
+      <c r="G1" s="13" t="n"/>
+      <c r="H1" s="13" t="n"/>
+      <c r="I1" s="13" t="n"/>
+      <c r="J1" s="13" t="n"/>
+      <c r="K1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="29" customHeight="1" thickBot="1">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>Objet</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="D2" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2" s="10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="36.5" customHeight="1" thickBot="1">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>Bénéfice</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" s="12" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3" s="12" t="n">
+        <v>36</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <v>98</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <v>70</v>
+      </c>
+      <c r="H3" s="12" t="n">
+        <v>82</v>
+      </c>
+      <c r="I3" s="12" t="n">
+        <v>29</v>
+      </c>
+      <c r="J3" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="K3" s="12" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" ht="29" customHeight="1" thickBot="1">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>Poids</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
-        <v>3</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="F4" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="10">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10">
-        <v>6</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="K4" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="I2" s="10">
-        <v>8</v>
-      </c>
-      <c r="J2" s="10">
-        <v>9</v>
-      </c>
-      <c r="K2" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="12">
-        <v>60</v>
-      </c>
-      <c r="C3" s="12">
-        <v>55</v>
-      </c>
-      <c r="D3" s="12">
-        <v>42</v>
-      </c>
-      <c r="E3" s="12">
-        <v>36</v>
-      </c>
-      <c r="F3" s="12">
-        <v>98</v>
-      </c>
-      <c r="G3" s="12">
-        <v>70</v>
-      </c>
-      <c r="H3" s="12">
-        <v>82</v>
-      </c>
-      <c r="I3" s="12">
-        <v>29</v>
-      </c>
-      <c r="J3" s="12">
-        <v>80</v>
-      </c>
-      <c r="K3" s="12">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="29" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12">
-        <v>5</v>
-      </c>
-      <c r="C4" s="12">
-        <v>4</v>
-      </c>
-      <c r="D4" s="12">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12">
-        <v>2</v>
-      </c>
-      <c r="F4" s="12">
-        <v>9</v>
-      </c>
-      <c r="G4" s="12">
-        <v>6</v>
-      </c>
-      <c r="H4" s="12">
-        <v>8</v>
-      </c>
-      <c r="I4" s="12">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12">
-        <v>4</v>
-      </c>
-      <c r="K4" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="12">
+    </row>
+    <row r="5" ht="36.5" customHeight="1" thickBot="1">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="12" t="n">
         <v>52</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="12" t="n">
         <v>39</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="12" t="n">
         <v>31</v>
       </c>
     </row>
@@ -921,155 +971,170 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="3" customWidth="1"/>
-    <col min="3" max="21" width="3.1796875" style="3" customWidth="1"/>
+    <col width="13.1796875" customWidth="1" min="1" max="1"/>
+    <col width="7.7265625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="3.1796875" customWidth="1" style="3" min="3" max="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4">
-        <v>9</v>
-      </c>
-      <c r="K2" s="4">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4">
+    <row r="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Solution Optimale :</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>172160</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Objet</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="L2" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="5" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
+    <row r="3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Transporté</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="H3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6">
+      <c r="K3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6">
+      <c r="N3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="6">
-        <v>1</v>
-      </c>
-      <c r="T3" s="6">
-        <v>1</v>
-      </c>
-      <c r="U3" s="7">
+      <c r="S3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="7" t="n">
         <v>0</v>
       </c>
     </row>
